--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Medicine</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>They will let me know if need help</t>
+  </si>
+  <si>
+    <t>Anita Mastroieni, Ed.D., Director of Graduate Student Center and Family Resource Center, mastroie@upenn.edu</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1160,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1182,52 +1185,55 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="B19" s="6">
         <f>+SUM(B15:B18)</f>
         <v>10383</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="B20" s="6">
         <f>+SUM(B14,B19)</f>
         <v>23488</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="F22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>

--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="0" windowWidth="21800" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>Medicine</t>
   </si>
@@ -156,9 +157,6 @@
     <t>8/11-15</t>
   </si>
   <si>
-    <t>Nancy Murphy, murphynk@mail.med.upenn.edu, Student Affairs</t>
-  </si>
-  <si>
     <t>http://www.med.upenn.edu/student/directories/faq.html</t>
   </si>
   <si>
@@ -204,9 +202,6 @@
     <t>Sue Schwartz, Assistant Dean for Student Affairs, 215-898-4550, susansz@dental.upenn.edu</t>
   </si>
   <si>
-    <t>Contact her after orientation</t>
-  </si>
-  <si>
     <t>Deb Lefferts, Associate Director of Student Affairs, lefferts@vet.upenn.edu / Ashra Markowitz, Assistant Dean for Student Affairs, ashra@vet.upenn.edu, 215-898-3525</t>
   </si>
   <si>
@@ -252,9 +247,6 @@
     <t>Sonya Gwak, sgwak@seas.upenn.edu / Will Fenton, wfenton@seas.upenn.edu</t>
   </si>
   <si>
-    <t>Emailed them</t>
-  </si>
-  <si>
     <t>Andrea M. Porter, Director of Student Services, anporter@design.upenn.edu</t>
   </si>
   <si>
@@ -267,35 +259,104 @@
     <t>http://www.gsc.upenn.edu/about</t>
   </si>
   <si>
-    <t>Contact her later in the term</t>
-  </si>
-  <si>
-    <t>Emailed Deb, she'll forward to student organizers</t>
-  </si>
-  <si>
     <t>Jennifer Jones Clinksdale, jonesjen@sp2.upenn.edu</t>
   </si>
   <si>
-    <t>Setting up meeting</t>
-  </si>
-  <si>
     <t>Lois MacNamara, loism@gse.upenn.edu</t>
   </si>
   <si>
-    <t>Colleen France, cfrance@law.upenn.edu</t>
-  </si>
-  <si>
-    <t>They will let me know if need help</t>
-  </si>
-  <si>
     <t>Anita Mastroieni, Ed.D., Director of Graduate Student Center and Family Resource Center, mastroie@upenn.edu</t>
+  </si>
+  <si>
+    <t>Happy Hour</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t># of People</t>
+  </si>
+  <si>
+    <t>% eClub Coverage</t>
+  </si>
+  <si>
+    <t>SSF, Speakers</t>
+  </si>
+  <si>
+    <t>SSF, WEMBA, Speakers</t>
+  </si>
+  <si>
+    <t>eClub Small Group Dinner</t>
+  </si>
+  <si>
+    <t>eClub Industry Lunch</t>
+  </si>
+  <si>
+    <t>SSF, WEMBA, Haas, GSB</t>
+  </si>
+  <si>
+    <t>Coverage/Person</t>
+  </si>
+  <si>
+    <t>Per Event</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>eClub SSF Budget</t>
+  </si>
+  <si>
+    <t>Event*</t>
+  </si>
+  <si>
+    <t>For Who*</t>
+  </si>
+  <si>
+    <t># of Times*</t>
+  </si>
+  <si>
+    <t>Jennifer will put me in touch with student group</t>
+  </si>
+  <si>
+    <t>Colleen France, cfrance@law.upenn.edu, Gary Clinton</t>
+  </si>
+  <si>
+    <t>Followed up</t>
+  </si>
+  <si>
+    <t>Follow up email didn’t work</t>
+  </si>
+  <si>
+    <t>Emailed her</t>
+  </si>
+  <si>
+    <t>Nancy Murphy, murphynk@mail.med.upenn.edu, Student Affairs / http://msg.med.upenn.edu/?page_id=12711</t>
+  </si>
+  <si>
+    <t>Post on MSG</t>
+  </si>
+  <si>
+    <t>Meeting with Lois</t>
+  </si>
+  <si>
+    <t>Wharton dual degree students</t>
+  </si>
+  <si>
+    <t>Emailed</t>
+  </si>
+  <si>
+    <t>Contact her in October</t>
+  </si>
+  <si>
+    <t>Not interested for now</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +405,14 @@
       <color rgb="FF042EEE"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,8 +490,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -433,8 +534,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="90">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +575,38 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -824,7 +960,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -844,25 +980,25 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -879,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -889,7 +1025,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
@@ -899,10 +1035,10 @@
         <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -918,18 +1054,18 @@
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
+      <c r="E4" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -939,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
@@ -964,18 +1100,18 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>88</v>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6">
@@ -985,13 +1121,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -1010,17 +1146,17 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>82</v>
+      <c r="E8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1034,20 +1170,20 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6">
@@ -1057,16 +1193,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1080,20 +1216,20 @@
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6">
@@ -1103,20 +1239,20 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="6">
@@ -1154,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -1202,26 +1338,32 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="E22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="F22" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:6">
@@ -1246,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1254,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1270,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1286,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1294,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1302,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1310,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1318,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1341,4 +1483,257 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>+PRODUCT(C3:E3)</f>
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <f>+PRODUCT(C3:F3)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>+PRODUCT(C4:E4)</f>
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <f>+PRODUCT(C4:F4)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>+PRODUCT(C5:E5)</f>
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <f>+PRODUCT(C5:F5)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>+PRODUCT(C6:E6)</f>
+        <v>450</v>
+      </c>
+      <c r="H6">
+        <f>+PRODUCT(C6:F6)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7">
+        <f>+SUM(G3:G6)</f>
+        <v>1250</v>
+      </c>
+      <c r="H7">
+        <f>+SUM(H3:H6)</f>
+        <v>2250</v>
+      </c>
+      <c r="I7">
+        <f>+SUM(I3:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>+SUM(J3:J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="0" windowWidth="21800" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="11820" yWindow="0" windowWidth="16980" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Medicine</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Larry Rappaport</t>
   </si>
   <si>
-    <t>Patricia Rea, patrea@sas.upenn.edu, Admissions Director / Marco Manzo, Academic and Student Affairs Director, mmanzo@sas.upenn.edu</t>
-  </si>
-  <si>
     <t>Sonya Gwak, sgwak@seas.upenn.edu / Will Fenton, wfenton@seas.upenn.edu</t>
   </si>
   <si>
@@ -337,12 +334,6 @@
     <t>Post on MSG</t>
   </si>
   <si>
-    <t>Meeting with Lois</t>
-  </si>
-  <si>
-    <t>Wharton dual degree students</t>
-  </si>
-  <si>
     <t>Emailed</t>
   </si>
   <si>
@@ -350,6 +341,18 @@
   </si>
   <si>
     <t>Not interested for now</t>
+  </si>
+  <si>
+    <t>They are using this</t>
+  </si>
+  <si>
+    <t>Deb forwarded on to student reps</t>
+  </si>
+  <si>
+    <t>Patricia Rea, patrea@sas.upenn.edu, 215-898-8101, Admissions Director / Marco Manzo, Academic and Student Affairs Director, mmanzo@sas.upenn.edu</t>
+  </si>
+  <si>
+    <t>She will market it for me</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,8 +525,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -537,8 +543,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -607,6 +614,9 @@
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -960,7 +970,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1035,10 +1045,10 @@
         <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1055,10 +1065,10 @@
         <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>45</v>
@@ -1078,10 +1088,10 @@
         <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
@@ -1101,10 +1111,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
@@ -1124,10 +1134,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -1147,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>54</v>
@@ -1170,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>59</v>
@@ -1193,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>61</v>
@@ -1216,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>60</v>
@@ -1239,10 +1249,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>58</v>
@@ -1337,32 +1347,29 @@
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="B22" s="6"/>
-      <c r="E22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>76</v>
+      <c r="A23" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="6"/>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>106</v>
+      <c r="A25" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B25" s="6"/>
     </row>
@@ -1473,7 +1480,7 @@
     <sortCondition descending="1" ref="B1:B12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1487,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1507,47 +1514,47 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1572,10 +1579,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1600,10 +1607,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1628,10 +1635,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1674,21 +1681,21 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1696,10 +1703,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1707,10 +1714,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1718,14 +1725,58 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="0" windowWidth="16980" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="0" windowWidth="18920" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Medicine</t>
   </si>
@@ -313,9 +313,6 @@
     <t># of Times*</t>
   </si>
   <si>
-    <t>Jennifer will put me in touch with student group</t>
-  </si>
-  <si>
     <t>Colleen France, cfrance@law.upenn.edu, Gary Clinton</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Follow up email didn’t work</t>
   </si>
   <si>
-    <t>Emailed her</t>
-  </si>
-  <si>
     <t>Nancy Murphy, murphynk@mail.med.upenn.edu, Student Affairs / http://msg.med.upenn.edu/?page_id=12711</t>
   </si>
   <si>
@@ -337,22 +331,37 @@
     <t>Emailed</t>
   </si>
   <si>
-    <t>Contact her in October</t>
-  </si>
-  <si>
     <t>Not interested for now</t>
   </si>
   <si>
-    <t>They are using this</t>
-  </si>
-  <si>
     <t>Deb forwarded on to student reps</t>
   </si>
   <si>
     <t>Patricia Rea, patrea@sas.upenn.edu, 215-898-8101, Admissions Director / Marco Manzo, Academic and Student Affairs Director, mmanzo@sas.upenn.edu</t>
   </si>
   <si>
-    <t>She will market it for me</t>
+    <t>Student body marketed it</t>
+  </si>
+  <si>
+    <t>Wait until spring</t>
+  </si>
+  <si>
+    <t>Sent to Patricia</t>
+  </si>
+  <si>
+    <t>Setting up SGDs</t>
+  </si>
+  <si>
+    <t>Setting up call</t>
+  </si>
+  <si>
+    <t>Tracey Chu</t>
+  </si>
+  <si>
+    <t>Food Club</t>
+  </si>
+  <si>
+    <t>Natalya Guseva, Jason Wang</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,13 +537,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -545,7 +559,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -617,6 +631,12 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -970,7 +990,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -992,22 +1012,22 @@
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1018,7 +1038,7 @@
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2316</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1038,17 +1058,17 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2193</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>110</v>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1058,17 +1078,17 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1783</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>103</v>
+      <c r="E4" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>45</v>
@@ -1078,7 +1098,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1574</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1088,7 +1108,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>79</v>
@@ -1104,14 +1124,14 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1421</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>73</v>
@@ -1124,7 +1144,7 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>925</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1134,10 +1154,10 @@
         <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -1150,14 +1170,14 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>649</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -1173,14 +1193,14 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>642</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>101</v>
+      <c r="E9" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>59</v>
@@ -1196,14 +1216,14 @@
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>593</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>61</v>
@@ -1219,14 +1239,14 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>482</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>60</v>
@@ -1242,16 +1262,16 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>446</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1265,7 +1285,7 @@
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>81</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1273,7 +1293,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>+SUM(B2:B13)</f>
         <v>13105</v>
       </c>
@@ -1282,7 +1302,7 @@
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>6352</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1293,7 +1313,7 @@
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1755</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1313,7 +1333,7 @@
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1720</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1324,7 +1344,7 @@
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>556</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1332,55 +1352,70 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>+SUM(B15:B18)</f>
         <v>10383</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>+SUM(B14,B19)</f>
         <v>23488</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="E23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="6"/>
+      <c r="A26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="E26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
@@ -1466,7 +1501,7 @@
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1513,39 +1548,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1562,7 +1597,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.5</v>
       </c>
       <c r="F3">
@@ -1590,7 +1625,7 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.5</v>
       </c>
       <c r="F4">
@@ -1618,7 +1653,7 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5">
@@ -1646,7 +1681,7 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6">
@@ -1680,13 +1715,13 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1735,48 +1770,48 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="0" windowWidth="18920" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="7580" yWindow="0" windowWidth="21220" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>Medicine</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>Students</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Sonya Gwak, sgwak@seas.upenn.edu / Will Fenton, wfenton@seas.upenn.edu</t>
   </si>
   <si>
-    <t>Andrea M. Porter, Director of Student Services, anporter@design.upenn.edu</t>
-  </si>
-  <si>
     <t>http://gapsa.upenn.edu/gapsa-executive-board-2014/</t>
   </si>
   <si>
@@ -316,45 +310,15 @@
     <t>Colleen France, cfrance@law.upenn.edu, Gary Clinton</t>
   </si>
   <si>
-    <t>Followed up</t>
-  </si>
-  <si>
-    <t>Follow up email didn’t work</t>
-  </si>
-  <si>
     <t>Nancy Murphy, murphynk@mail.med.upenn.edu, Student Affairs / http://msg.med.upenn.edu/?page_id=12711</t>
   </si>
   <si>
     <t>Post on MSG</t>
   </si>
   <si>
-    <t>Emailed</t>
-  </si>
-  <si>
-    <t>Not interested for now</t>
-  </si>
-  <si>
-    <t>Deb forwarded on to student reps</t>
-  </si>
-  <si>
     <t>Patricia Rea, patrea@sas.upenn.edu, 215-898-8101, Admissions Director / Marco Manzo, Academic and Student Affairs Director, mmanzo@sas.upenn.edu</t>
   </si>
   <si>
-    <t>Student body marketed it</t>
-  </si>
-  <si>
-    <t>Wait until spring</t>
-  </si>
-  <si>
-    <t>Sent to Patricia</t>
-  </si>
-  <si>
-    <t>Setting up SGDs</t>
-  </si>
-  <si>
-    <t>Setting up call</t>
-  </si>
-  <si>
     <t>Tracey Chu</t>
   </si>
   <si>
@@ -362,13 +326,46 @@
   </si>
   <si>
     <t>Natalya Guseva, Jason Wang</t>
+  </si>
+  <si>
+    <t>Inquired about spring</t>
+  </si>
+  <si>
+    <t>Andrea M. Porter, Director of Student Services, anporter@design.upenn.edu, new Student Affairs contact</t>
+  </si>
+  <si>
+    <t>DONE - marketed by student body</t>
+  </si>
+  <si>
+    <t>DONE - used during pre-term</t>
+  </si>
+  <si>
+    <t>Call (they didn’t reply to emails)</t>
+  </si>
+  <si>
+    <t>Asked for student government contact</t>
+  </si>
+  <si>
+    <t>Inquire about spring</t>
+  </si>
+  <si>
+    <t>http://gapsa.upenn.edu/ei-funding</t>
+  </si>
+  <si>
+    <t>Lucy Hao Liu</t>
+  </si>
+  <si>
+    <t>Request to create FB event</t>
+  </si>
+  <si>
+    <t>Apply for funding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +422,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF042EEE"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -543,8 +552,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -558,8 +578,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -637,6 +659,17 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -987,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1010,25 +1043,25 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -1045,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1064,11 +1097,11 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>108</v>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1085,10 +1118,10 @@
         <v>44</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>45</v>
@@ -1105,13 +1138,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
@@ -1130,11 +1163,11 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>99</v>
+      <c r="E6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
@@ -1151,13 +1184,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -1177,16 +1210,16 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1200,13 +1233,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -1223,16 +1256,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1246,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -1269,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>17</v>
@@ -1320,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -1371,142 +1404,154 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="E23" s="3" t="s">
-        <v>102</v>
+      <c r="E23" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
-        <v>76</v>
+      <c r="A25" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>112</v>
+      <c r="A26" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="E26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B27" s="5"/>
+      <c r="E27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1516,6 +1561,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A23" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1549,47 +1595,47 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1614,10 +1660,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1642,10 +1688,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1670,10 +1716,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1716,21 +1762,21 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1738,10 +1784,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1749,10 +1795,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1760,10 +1806,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>2</v>

--- a/~bus dev/Penn Community.xlsx
+++ b/~bus dev/Penn Community.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="0" windowWidth="21220" windowHeight="15560" tabRatio="500"/>
@@ -130,9 +130,6 @@
     <t>https://www.law.upenn.edu/academics/crossdisciplinary/jdmba/contact.php</t>
   </si>
   <si>
-    <t>Lois MacNamara</t>
-  </si>
-  <si>
     <t>http://www.gse.upenn.edu/students/welcome</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>Apply for funding</t>
+  </si>
+  <si>
+    <t>Lois McNamara</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1043,25 +1043,25 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -1078,10 +1078,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>25</v>
@@ -1095,13 +1095,13 @@
         <v>2193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1115,16 +1115,16 @@
         <v>1783</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1138,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>5</v>
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>6</v>
@@ -1184,13 +1184,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -1210,16 +1210,16 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1233,13 +1233,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -1256,16 +1256,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1279,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -1302,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>17</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
         <v>81</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1353,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1404,56 +1404,56 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5"/>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5"/>
       <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5"/>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1577,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1595,47 +1595,47 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="I2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1762,21 +1762,21 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>2</v>
